--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614BFD6-7585-4F69-A30B-1AAC17C31A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4DF6D-B485-4DA3-9CA0-63A9A8EB476A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4DF6D-B485-4DA3-9CA0-63A9A8EB476A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F71A6-D90F-4359-BE2B-5F1202FEBC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,12 +74,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,28 +106,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -135,13 +152,21 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -155,26 +180,58 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -201,15 +258,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D101" headerRowDxfId="10" dataDxfId="5">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -220,10 +277,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前"/>
     <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -231,11 +288,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C80" totalsRowShown="0">
   <autoFilter ref="A1:C80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -517,330 +574,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D101" s="3"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -868,7 +1215,7 @@
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
@@ -883,392 +1230,482 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1309,334 +1746,334 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA97CA-347B-4C57-B100-D05DB629F339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C013A-0FC0-4CD2-BA76-29370545E678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -94,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -182,11 +179,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,12 +217,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,28 +386,28 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
         <right style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </right>
         <top style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
         <vertical style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
@@ -910,16 +921,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1027,9 +1038,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2157,1419 +2166,1419 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="4"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="4"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="4"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="4"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="4"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="4"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="4"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="4"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="4"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="4"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="4"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="4"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="4"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="4"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="4"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="4"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="4"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="4"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="4"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="4"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="4"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="4"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="4"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="4"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="18"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="4"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="4"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="4"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="18"/>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="4"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="4"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="4"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="4"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="4"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="4"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="4"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="18"/>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="4"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="18"/>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="4"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="4"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="4"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="4"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="4"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="4"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="4"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="4"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="4"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="4"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="18"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="4"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="4"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="4"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="4"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="18"/>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="4"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="18"/>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="4"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="18"/>
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="4"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="18"/>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="4"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="4"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="4"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="4"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="18"/>
       <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="4"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="4"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="4"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="4"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="18"/>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="4"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="18"/>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="4"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="18"/>
       <c r="E159" s="4"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="4"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="4"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="4"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="4"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="18"/>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="4"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="18"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="4"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="4"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="18"/>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="4"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="18"/>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="4"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="4"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="4"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="4"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="18"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="4"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="18"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="4"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="4"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="4"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="4"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="18"/>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="4"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="18"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="4"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="4"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="4"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="4"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="18"/>
       <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="4"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="18"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="18"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="4"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="4"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="4"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="4"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="4"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="4"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="18"/>
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="4"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="18"/>
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="4"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="4"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="4"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="4"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="4"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="4"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="18"/>
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="18"/>
       <c r="E195" s="4"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="4"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="4"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="4"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="4"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="4"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="18"/>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="4"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="18"/>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="16"/>
+      <c r="A201" s="15"/>
       <c r="B201" s="16"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="4"/>
     </row>
   </sheetData>
@@ -3606,13 +3615,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>5</v>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4611,8 +4620,8 @@
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="16"/>
-      <c r="B201" s="17"/>
+      <c r="A201" s="15"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="4"/>
     </row>
   </sheetData>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C013A-0FC0-4CD2-BA76-29370545E678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA16A2C-AD8D-4EF9-AB90-7383D6D1202A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA16A2C-AD8D-4EF9-AB90-7383D6D1202A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C242D79-6D87-459F-A2F8-9391C2F043A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2134,9 +2134,12 @@
       <c r="D201" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なタイプ" error="サポートされているタイプを選択してください。" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Standard,Template"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="B2:B1048576" xr:uid="{7C757510-33D1-4F54-A1FE-EAB70A439D28}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3583,12 +3586,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C96:C1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
       <formula1>"Success,Failure"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なタイプ" error="サポートされているタイプを選択してください。" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Standard,Template"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="D2:D1048576" xr:uid="{CD0F9AB5-193A-4271-A161-1DE76E00D82B}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4625,6 +4631,11 @@
       <c r="C201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{F71A84D4-7AD4-4F43-9F91-4F796519F907}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94B6B2B-6344-4DEC-B652-884232C80483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B75BC8E-E4FC-4AC5-BC8A-77BE181E60FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,12 +252,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -446,24 +440,9 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -562,6 +541,27 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -576,39 +576,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="14" dataDxfId="12" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -885,10 +885,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="54" style="6" customWidth="1"/>
+    <col min="1" max="2" width="15.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="45.6328125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
@@ -2133,11 +2132,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.08984375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" style="6" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="6"/>
   </cols>
@@ -3591,8 +3590,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.36328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B75BC8E-E4FC-4AC5-BC8A-77BE181E60FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DDE3F-03D9-4515-B56B-A92F1ADFA5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59205" yWindow="1515" windowWidth="26580" windowHeight="12930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -51,23 +51,42 @@
   <si>
     <t>結果</t>
   </si>
+  <si>
+    <t>ライセンス - Unattended ランタイム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ライセンス - NonProduction ランタイム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ライセンス - Testing ランタイム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -246,11 +265,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -576,39 +631,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0B19F6EE-7C86-44BC-80C0-D30546D030AC}" name="ライセンス - Unattended ランタイム" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7EA882F2-042D-4F73-8EDC-E165D0915322}" name="ライセンス - NonProduction ランタイム" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C69A37E8-B9B3-48A7-A575-E5822ECC51C5}" name="ライセンス - Testing ランタイム" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,19 +937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="15.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="45.6328125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="2" width="15.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -905,1207 +963,1208 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="8"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="8"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="8"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="8"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="8"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="8"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="8"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="8"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="8"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="8"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="8"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="8"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="8"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="8"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="8"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="8"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="8"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="8"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="8"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="8"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="8"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="8"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="8"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="8"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="8"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="8"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="8"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="8"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="8"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="10"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なタイプ" error="サポートされているタイプを選択してください。" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Standard,Template"</formula1>
@@ -2124,1450 +2183,2065 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="15.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.4140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="32.4140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3"/>
       <c r="B98" s="12"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3"/>
       <c r="B99" s="12"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3"/>
       <c r="B100" s="12"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3"/>
       <c r="B101" s="12"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3"/>
       <c r="B102" s="12"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3"/>
       <c r="B103" s="12"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3"/>
       <c r="B104" s="12"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3"/>
       <c r="B106" s="12"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3"/>
       <c r="B107" s="12"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3"/>
       <c r="B108" s="12"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3"/>
       <c r="B112" s="12"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3"/>
       <c r="B113" s="12"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3"/>
       <c r="B114" s="12"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3"/>
       <c r="B115" s="12"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3"/>
       <c r="B116" s="12"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3"/>
       <c r="B117" s="12"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3"/>
       <c r="B118" s="12"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3"/>
       <c r="B119" s="12"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3"/>
       <c r="B120" s="12"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3"/>
       <c r="B121" s="12"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3"/>
       <c r="B122" s="12"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3"/>
       <c r="B123" s="12"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3"/>
       <c r="B124" s="12"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3"/>
       <c r="B125" s="12"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3"/>
       <c r="B126" s="12"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3"/>
       <c r="B127" s="12"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3"/>
       <c r="B128" s="12"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3"/>
       <c r="B129" s="12"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3"/>
       <c r="B130" s="12"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3"/>
       <c r="B131" s="12"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3"/>
       <c r="B132" s="12"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3"/>
       <c r="B133" s="12"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3"/>
       <c r="B134" s="12"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3"/>
       <c r="B135" s="12"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3"/>
       <c r="B136" s="12"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3"/>
       <c r="B137" s="12"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3"/>
       <c r="B138" s="12"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3"/>
       <c r="B139" s="12"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3"/>
       <c r="B140" s="12"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3"/>
       <c r="B141" s="12"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3"/>
       <c r="B142" s="12"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3"/>
       <c r="B143" s="12"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3"/>
       <c r="B144" s="12"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3"/>
       <c r="B145" s="12"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3"/>
       <c r="B146" s="12"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3"/>
       <c r="B147" s="12"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3"/>
       <c r="B148" s="12"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3"/>
       <c r="B149" s="12"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3"/>
       <c r="B150" s="12"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3"/>
       <c r="B151" s="12"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3"/>
       <c r="B152" s="12"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3"/>
       <c r="B153" s="12"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3"/>
       <c r="B154" s="12"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3"/>
       <c r="B155" s="12"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3"/>
       <c r="B156" s="12"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3"/>
       <c r="B157" s="12"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="3"/>
       <c r="B158" s="12"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3"/>
       <c r="B159" s="12"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="3"/>
       <c r="B160" s="12"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3"/>
       <c r="B161" s="12"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3"/>
       <c r="B162" s="12"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="3"/>
       <c r="B163" s="12"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="3"/>
       <c r="B164" s="12"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3"/>
       <c r="B165" s="12"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3"/>
       <c r="B166" s="12"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="3"/>
       <c r="B167" s="12"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3"/>
       <c r="B168" s="12"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="3"/>
       <c r="B169" s="12"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3"/>
       <c r="B170" s="12"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3"/>
       <c r="B171" s="12"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3"/>
       <c r="B172" s="12"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3"/>
       <c r="B173" s="12"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3"/>
       <c r="B174" s="12"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3"/>
       <c r="B175" s="12"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3"/>
       <c r="B176" s="12"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3"/>
       <c r="B177" s="12"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3"/>
       <c r="B178" s="12"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3"/>
       <c r="B179" s="12"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3"/>
       <c r="B180" s="12"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3"/>
       <c r="B181" s="12"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3"/>
       <c r="B182" s="12"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="3"/>
       <c r="B183" s="12"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="3"/>
       <c r="B184" s="12"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="3"/>
       <c r="B185" s="12"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="3"/>
       <c r="B186" s="12"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3"/>
       <c r="B187" s="12"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3"/>
       <c r="B188" s="12"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="3"/>
       <c r="B189" s="12"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="3"/>
       <c r="B190" s="12"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="3"/>
       <c r="B191" s="12"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3"/>
       <c r="B192" s="12"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="3"/>
       <c r="B193" s="12"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="3"/>
       <c r="B194" s="12"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3"/>
       <c r="B195" s="12"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="1"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="3"/>
       <c r="B196" s="12"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="3"/>
       <c r="B197" s="12"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3"/>
       <c r="B198" s="12"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="1"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="3"/>
       <c r="B199" s="12"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="1"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="3"/>
       <c r="B200" s="12"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="1"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="1"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C96:C1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F96:F1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
       <formula1>"Success,Failure"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なタイプ" error="サポートされているタイプを選択してください。" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Standard,Template"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="D2:D1048576" xr:uid="{CD0F9AB5-193A-4271-A161-1DE76E00D82B}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="G2:G1048576" xr:uid="{CD0F9AB5-193A-4271-A161-1DE76E00D82B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E1048576" xr:uid="{A8393DE5-8CAC-464D-8412-63C22A464BE3}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3587,15 +4261,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="17.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3606,1007 +4280,1008 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="12"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="12"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="12"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="12"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="12"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="12"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="12"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3"/>
       <c r="B10" s="12"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="12"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="12"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
       <c r="B15" s="12"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="12"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="12"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="12"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="12"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="12"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3"/>
       <c r="B22" s="12"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3"/>
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3"/>
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3"/>
       <c r="B26" s="12"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3"/>
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3"/>
       <c r="B32" s="12"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3"/>
       <c r="B33" s="12"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="12"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="12"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="12"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3"/>
       <c r="B38" s="12"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3"/>
       <c r="B39" s="12"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3"/>
       <c r="B40" s="12"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3"/>
       <c r="B41" s="12"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3"/>
       <c r="B42" s="12"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
       <c r="B43" s="12"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
       <c r="B44" s="12"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3"/>
       <c r="B45" s="12"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3"/>
       <c r="B46" s="12"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3"/>
       <c r="B47" s="12"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3"/>
       <c r="B48" s="12"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="12"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3"/>
       <c r="B50" s="12"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3"/>
       <c r="B51" s="12"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3"/>
       <c r="B52" s="12"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3"/>
       <c r="B53" s="12"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3"/>
       <c r="B54" s="12"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3"/>
       <c r="B55" s="12"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3"/>
       <c r="B56" s="12"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3"/>
       <c r="B57" s="12"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3"/>
       <c r="B58" s="12"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3"/>
       <c r="B59" s="12"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3"/>
       <c r="B60" s="12"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3"/>
       <c r="B61" s="12"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3"/>
       <c r="B62" s="12"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3"/>
       <c r="B63" s="12"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3"/>
       <c r="B64" s="12"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3"/>
       <c r="B65" s="12"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3"/>
       <c r="B66" s="12"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3"/>
       <c r="B67" s="12"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3"/>
       <c r="B68" s="12"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3"/>
       <c r="B69" s="12"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3"/>
       <c r="B71" s="12"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3"/>
       <c r="B72" s="12"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3"/>
       <c r="B73" s="12"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3"/>
       <c r="B75" s="12"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3"/>
       <c r="B76" s="12"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3"/>
       <c r="B77" s="12"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3"/>
       <c r="B79" s="12"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3"/>
       <c r="B80" s="12"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{F71A84D4-7AD4-4F43-9F91-4F796519F907}">
       <formula1>0</formula1>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3356650-8207-4F71-B35D-51EA2681997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6014D5-9CDE-4F23-883C-2AE3E5069DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6014D5-9CDE-4F23-883C-2AE3E5069DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4978061-0381-44DA-9540-DE943818D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1064,6 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,6 +2314,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4384,6 +4386,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4978061-0381-44DA-9540-DE943818D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956A270-25D2-434A-9668-49DC1901A401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956A270-25D2-434A-9668-49DC1901A401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C56BFCF-B6B9-49A6-94E9-FCC0528B1E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -52,6 +52,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>説明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライセンス - Unattended ランタイム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライセンス - NonProduction ランタイム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライセンス - Testing ランタイム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>キー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -61,6 +77,10 @@
   </si>
   <si>
     <t>名前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>説明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -320,11 +340,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -522,6 +543,17 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -585,6 +617,106 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -760,24 +892,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="19" dataDxfId="17" totalsRowDxfId="15" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F904262A-6CA0-4711-BC84-FFA4BDAAFDBC}" name="説明" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{29CDBC9F-7802-4F9A-B14D-B1FCB565F43F}" name="ライセンス - Unattended ランタイム" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A22596C9-48F0-4242-86F7-2AA0AF649AAB}" name="ライセンス - NonProduction ランタイム" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{F8A1464B-64D6-49F2-A428-70FBC7C832E3}" name="ライセンス - Testing ランタイム" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
-  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{4045AA2E-C8FB-4B94-AE28-4AD67667FBC9}" name="説明" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{93F9A37A-76A0-4773-B977-E8046BE298D0}" name="ライセンス - Unattended ランタイム" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{99A48AC2-2597-4336-8A74-C65178D77EA5}" name="ライセンス - NonProduction ランタイム" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{2293D387-0C29-4EC9-A0D4-7B354A04A290}" name="ライセンス - Testing ランタイム" dataDxfId="6"/>
@@ -1065,7 +1202,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1074,11 +1211,12 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="3" max="4" width="25.75" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1091,1208 +1229,2020 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="5"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="5"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="10"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="5"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="5"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="5"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="10"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="10"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="10"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="10"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="5"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="5"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="5"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="14"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="5"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
-      <c r="D103" s="14"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="5"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="5"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
-      <c r="D105" s="14"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
-      <c r="D106" s="14"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
-      <c r="D107" s="14"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="5"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
-      <c r="D108" s="14"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="5"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
-      <c r="D110" s="14"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="5"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="14"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
-      <c r="D113" s="14"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="14"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="5"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="5"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
-      <c r="D115" s="14"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="5"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="14"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="5"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
-      <c r="D117" s="14"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
-      <c r="D118" s="14"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="5"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
-      <c r="D119" s="14"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="5"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
-      <c r="D120" s="14"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="5"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
-      <c r="D121" s="14"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="14"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="5"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
-      <c r="D122" s="14"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="5"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="14"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
-      <c r="D124" s="14"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="14"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
-      <c r="D125" s="14"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="14"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="5"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="14"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="14"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
-      <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="14"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="14"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
-      <c r="D129" s="14"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="14"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
-      <c r="D130" s="14"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="14"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
-      <c r="D131" s="14"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="14"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="5"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
-      <c r="D132" s="14"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="14"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="14"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="5"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
-      <c r="D134" s="14"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="5"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="14"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="5"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
-      <c r="D136" s="14"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="5"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
-      <c r="D137" s="14"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="14"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="5"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
-      <c r="D138" s="14"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="14"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="5"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
-      <c r="D139" s="14"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="14"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="14"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="14"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="5"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="14"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="14"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="5"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
-      <c r="D142" s="14"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="14"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="5"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
-      <c r="D143" s="14"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="14"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
-      <c r="D144" s="14"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="14"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="5"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
-      <c r="D145" s="14"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="14"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="5"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
-      <c r="D146" s="14"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="14"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="5"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
-      <c r="D147" s="14"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="5"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
-      <c r="D148" s="14"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="14"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="5"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
-      <c r="D149" s="14"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="5"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
-      <c r="D150" s="14"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="5"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
-      <c r="D151" s="14"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="14"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="5"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
-      <c r="D152" s="14"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="5"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
-      <c r="D153" s="14"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="14"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="5"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="14"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="5"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
-      <c r="D155" s="14"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="14"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="5"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
-      <c r="D156" s="14"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="5"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
-      <c r="D157" s="14"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="14"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="5"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
-      <c r="D158" s="14"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="14"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="5"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
-      <c r="D159" s="14"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="5"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
-      <c r="D160" s="14"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="5"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
-      <c r="D161" s="14"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="5"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
-      <c r="D162" s="14"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="14"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="5"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
-      <c r="D163" s="14"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="14"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="5"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
-      <c r="D164" s="14"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="14"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="5"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="14"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="5"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
-      <c r="D166" s="14"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="5"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
-      <c r="D167" s="14"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="5"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="14"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="5"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="14"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="5"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
-      <c r="D170" s="14"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="5"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
-      <c r="D171" s="14"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="5"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
-      <c r="D172" s="14"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="5"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
-      <c r="D173" s="14"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="5"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
-      <c r="D174" s="14"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="5"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="14"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="14"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="5"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
-      <c r="D176" s="14"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="5"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
-      <c r="D177" s="14"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="14"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="5"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
-      <c r="D178" s="14"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="14"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
-      <c r="D179" s="14"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="5"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
-      <c r="D180" s="14"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="5"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
-      <c r="D181" s="14"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="5"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
-      <c r="D182" s="14"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
-      <c r="D183" s="14"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="14"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
-      <c r="D184" s="14"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="5"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
-      <c r="D185" s="14"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="14"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="5"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
-      <c r="D186" s="14"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="14"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="5"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
-      <c r="D187" s="14"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="14"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="5"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
-      <c r="D188" s="14"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="14"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="5"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
-      <c r="D189" s="14"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="14"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="5"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
-      <c r="D190" s="14"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="14"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
-      <c r="D191" s="14"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="14"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
-      <c r="D192" s="14"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="14"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
-      <c r="D193" s="14"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="14"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="5"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
-      <c r="D194" s="14"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="14"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="5"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
-      <c r="D195" s="14"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="14"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="5"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
-      <c r="D196" s="14"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="14"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="5"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
-      <c r="D197" s="14"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="5"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
-      <c r="D198" s="14"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="14"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="5"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
-      <c r="D199" s="14"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="14"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="5"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
-      <c r="D200" s="14"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="14"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="11"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
-      <c r="D201" s="15"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2315,7 +3265,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2324,2055 +3274,2258 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.4140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.75" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.75" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.4140625" customWidth="1"/>
+    <col min="2" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.75" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
+      <c r="F1" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16"/>
       <c r="B4" s="18"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16"/>
       <c r="B5" s="18"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="21"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16"/>
       <c r="B7" s="18"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="21"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16"/>
       <c r="B8" s="18"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="21"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16"/>
       <c r="B9" s="18"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16"/>
       <c r="B10" s="18"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16"/>
       <c r="B11" s="18"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16"/>
       <c r="B12" s="18"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16"/>
       <c r="B13" s="18"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="16"/>
       <c r="B14" s="18"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16"/>
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="16"/>
       <c r="B17" s="18"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16"/>
       <c r="B18" s="18"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16"/>
       <c r="B19" s="18"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="16"/>
       <c r="B20" s="18"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="16"/>
       <c r="B21" s="18"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="16"/>
       <c r="B23" s="18"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16"/>
       <c r="B24" s="18"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16"/>
       <c r="B25" s="18"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16"/>
       <c r="B28" s="18"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="16"/>
       <c r="B29" s="18"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="16"/>
       <c r="B30" s="18"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="16"/>
       <c r="B31" s="18"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="16"/>
       <c r="B32" s="18"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="16"/>
       <c r="B33" s="18"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="16"/>
       <c r="B34" s="18"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="16"/>
       <c r="B35" s="18"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="16"/>
       <c r="B36" s="18"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16"/>
       <c r="B37" s="18"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="16"/>
       <c r="B38" s="18"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="16"/>
       <c r="B39" s="18"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="16"/>
       <c r="B40" s="18"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="16"/>
       <c r="B41" s="18"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="16"/>
       <c r="B42" s="18"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="16"/>
       <c r="B43" s="18"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="16"/>
       <c r="B44" s="18"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="16"/>
       <c r="B45" s="18"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="16"/>
       <c r="B46" s="18"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="16"/>
       <c r="B47" s="18"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="16"/>
       <c r="B48" s="18"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="16"/>
       <c r="B49" s="18"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="16"/>
       <c r="B50" s="18"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="16"/>
       <c r="B51" s="18"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="16"/>
       <c r="B52" s="18"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="16"/>
       <c r="B53" s="18"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="16"/>
       <c r="B54" s="18"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="16"/>
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="16"/>
       <c r="B56" s="18"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="16"/>
       <c r="B57" s="18"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="16"/>
       <c r="B58" s="18"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="16"/>
       <c r="B59" s="18"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="7"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="16"/>
       <c r="B60" s="18"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="7"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="16"/>
       <c r="B61" s="18"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="21"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="16"/>
       <c r="B62" s="18"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" s="7"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="16"/>
       <c r="B63" s="18"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H63" s="7"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="16"/>
       <c r="B64" s="18"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="16"/>
       <c r="B65" s="18"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="21"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="16"/>
       <c r="B66" s="18"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="21"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H66" s="7"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="16"/>
       <c r="B67" s="18"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H67" s="7"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="16"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="21"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="16"/>
       <c r="B69" s="18"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="21"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16"/>
       <c r="B70" s="18"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="21"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H70" s="7"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="16"/>
       <c r="B71" s="18"/>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="21"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="16"/>
       <c r="B72" s="18"/>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="16"/>
       <c r="B73" s="18"/>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="21"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="16"/>
       <c r="B74" s="18"/>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="21"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H74" s="7"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="16"/>
       <c r="B75" s="18"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="21"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H75" s="7"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="16"/>
       <c r="B76" s="18"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="21"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="16"/>
       <c r="B77" s="18"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="21"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="16"/>
       <c r="B78" s="18"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="21"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="16"/>
       <c r="B79" s="18"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="21"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H79" s="7"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="16"/>
       <c r="B80" s="18"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" s="7"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="16"/>
       <c r="B81" s="18"/>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="21"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="16"/>
       <c r="B82" s="18"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="16"/>
       <c r="B83" s="18"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="21"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="16"/>
       <c r="B84" s="18"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="21"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="16"/>
       <c r="B85" s="18"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="16"/>
       <c r="B86" s="18"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="21"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="16"/>
       <c r="B87" s="18"/>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="21"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="16"/>
       <c r="B88" s="18"/>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="21"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H88" s="7"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="16"/>
       <c r="B89" s="18"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H89" s="7"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="16"/>
       <c r="B90" s="18"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="21"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H90" s="7"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="16"/>
       <c r="B91" s="18"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="21"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H91" s="7"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="16"/>
       <c r="B92" s="18"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="21"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="16"/>
       <c r="B93" s="18"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="16"/>
       <c r="B94" s="18"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="21"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H94" s="7"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="16"/>
       <c r="B95" s="18"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="21"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="16"/>
       <c r="B96" s="18"/>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="21"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H96" s="7"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="16"/>
       <c r="B97" s="18"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="21"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H97" s="7"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="16"/>
       <c r="B98" s="18"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="21"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H98" s="7"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="16"/>
       <c r="B99" s="18"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="21"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H99" s="7"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="16"/>
       <c r="B100" s="18"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H100" s="7"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="16"/>
       <c r="B101" s="18"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H101" s="7"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="16"/>
       <c r="B102" s="18"/>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="21"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102" s="7"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="16"/>
       <c r="B103" s="18"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="21"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H103" s="7"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="16"/>
       <c r="B104" s="18"/>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
-      <c r="F104" s="7"/>
+      <c r="F104" s="21"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H104" s="7"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="16"/>
       <c r="B105" s="18"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="21"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H105" s="7"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="16"/>
       <c r="B106" s="18"/>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="7"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="16"/>
       <c r="B107" s="18"/>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
-      <c r="F107" s="7"/>
+      <c r="F107" s="21"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H107" s="7"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="16"/>
       <c r="B108" s="18"/>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="21"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H108" s="7"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="16"/>
       <c r="B109" s="18"/>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="21"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H109" s="7"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="16"/>
       <c r="B110" s="18"/>
       <c r="C110" s="21"/>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
-      <c r="F110" s="7"/>
+      <c r="F110" s="21"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H110" s="7"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="16"/>
       <c r="B111" s="18"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="21"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H111" s="7"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="16"/>
       <c r="B112" s="18"/>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="21"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H112" s="7"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="16"/>
       <c r="B113" s="18"/>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="21"/>
       <c r="G113" s="7"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" s="7"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="16"/>
       <c r="B114" s="18"/>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="7"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H114" s="7"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="16"/>
       <c r="B115" s="18"/>
       <c r="C115" s="21"/>
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
-      <c r="F115" s="7"/>
+      <c r="F115" s="21"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H115" s="7"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="16"/>
       <c r="B116" s="18"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="21"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H116" s="7"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="16"/>
       <c r="B117" s="18"/>
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
       <c r="E117" s="21"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="21"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H117" s="7"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="16"/>
       <c r="B118" s="18"/>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
-      <c r="F118" s="7"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H118" s="7"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="16"/>
       <c r="B119" s="18"/>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
-      <c r="F119" s="7"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H119" s="7"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="16"/>
       <c r="B120" s="18"/>
       <c r="C120" s="21"/>
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
-      <c r="F120" s="7"/>
+      <c r="F120" s="21"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H120" s="7"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="16"/>
       <c r="B121" s="18"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="21"/>
       <c r="G121" s="7"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H121" s="7"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="16"/>
       <c r="B122" s="18"/>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="21"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H122" s="7"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="16"/>
       <c r="B123" s="18"/>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
-      <c r="F123" s="7"/>
+      <c r="F123" s="21"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H123" s="7"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="16"/>
       <c r="B124" s="18"/>
       <c r="C124" s="21"/>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
-      <c r="F124" s="7"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="7"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H124" s="7"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="16"/>
       <c r="B125" s="18"/>
       <c r="C125" s="21"/>
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
-      <c r="F125" s="7"/>
+      <c r="F125" s="21"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H125" s="7"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="16"/>
       <c r="B126" s="18"/>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="21"/>
       <c r="G126" s="7"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H126" s="7"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="16"/>
       <c r="B127" s="18"/>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
-      <c r="F127" s="7"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H127" s="7"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="16"/>
       <c r="B128" s="18"/>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
-      <c r="F128" s="7"/>
+      <c r="F128" s="21"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H128" s="7"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="16"/>
       <c r="B129" s="18"/>
       <c r="C129" s="21"/>
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="21"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="6"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H129" s="7"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="16"/>
       <c r="B130" s="18"/>
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H130" s="7"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="16"/>
       <c r="B131" s="18"/>
       <c r="C131" s="21"/>
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="21"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H131" s="7"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="16"/>
       <c r="B132" s="18"/>
       <c r="C132" s="21"/>
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="21"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="6"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H132" s="7"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="16"/>
       <c r="B133" s="18"/>
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
-      <c r="F133" s="7"/>
+      <c r="F133" s="21"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H133" s="7"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="16"/>
       <c r="B134" s="18"/>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
       <c r="E134" s="21"/>
-      <c r="F134" s="7"/>
+      <c r="F134" s="21"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H134" s="7"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="16"/>
       <c r="B135" s="18"/>
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
       <c r="E135" s="21"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="21"/>
       <c r="G135" s="7"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H135" s="7"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="16"/>
       <c r="B136" s="18"/>
       <c r="C136" s="21"/>
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
-      <c r="F136" s="7"/>
+      <c r="F136" s="21"/>
       <c r="G136" s="7"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H136" s="7"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="16"/>
       <c r="B137" s="18"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
-      <c r="F137" s="7"/>
+      <c r="F137" s="21"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H137" s="7"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="16"/>
       <c r="B138" s="18"/>
       <c r="C138" s="21"/>
       <c r="D138" s="21"/>
       <c r="E138" s="21"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="21"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H138" s="7"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="16"/>
       <c r="B139" s="18"/>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
-      <c r="F139" s="7"/>
+      <c r="F139" s="21"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H139" s="7"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="16"/>
       <c r="B140" s="18"/>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
-      <c r="F140" s="7"/>
+      <c r="F140" s="21"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="6"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H140" s="7"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="16"/>
       <c r="B141" s="18"/>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="21"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="6"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H141" s="7"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="16"/>
       <c r="B142" s="18"/>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
-      <c r="F142" s="7"/>
+      <c r="F142" s="21"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="6"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H142" s="7"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="16"/>
       <c r="B143" s="18"/>
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
-      <c r="F143" s="7"/>
+      <c r="F143" s="21"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="6"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H143" s="7"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="16"/>
       <c r="B144" s="18"/>
       <c r="C144" s="21"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
-      <c r="F144" s="7"/>
+      <c r="F144" s="21"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="6"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H144" s="7"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="16"/>
       <c r="B145" s="18"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
-      <c r="F145" s="7"/>
+      <c r="F145" s="21"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H145" s="7"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="16"/>
       <c r="B146" s="18"/>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
-      <c r="F146" s="7"/>
+      <c r="F146" s="21"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="6"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H146" s="7"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="16"/>
       <c r="B147" s="18"/>
       <c r="C147" s="21"/>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
-      <c r="F147" s="7"/>
+      <c r="F147" s="21"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="6"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H147" s="7"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="16"/>
       <c r="B148" s="18"/>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="21"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H148" s="7"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="16"/>
       <c r="B149" s="18"/>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
-      <c r="F149" s="7"/>
+      <c r="F149" s="21"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H149" s="7"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="16"/>
       <c r="B150" s="18"/>
       <c r="C150" s="21"/>
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
-      <c r="F150" s="7"/>
+      <c r="F150" s="21"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H150" s="7"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="16"/>
       <c r="B151" s="18"/>
       <c r="C151" s="21"/>
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
-      <c r="F151" s="7"/>
+      <c r="F151" s="21"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H151" s="7"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="16"/>
       <c r="B152" s="18"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
-      <c r="F152" s="7"/>
+      <c r="F152" s="21"/>
       <c r="G152" s="7"/>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H152" s="7"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="16"/>
       <c r="B153" s="18"/>
       <c r="C153" s="21"/>
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
-      <c r="F153" s="7"/>
+      <c r="F153" s="21"/>
       <c r="G153" s="7"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H153" s="7"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="16"/>
       <c r="B154" s="18"/>
       <c r="C154" s="21"/>
       <c r="D154" s="21"/>
       <c r="E154" s="21"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="21"/>
       <c r="G154" s="7"/>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H154" s="7"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="16"/>
       <c r="B155" s="18"/>
       <c r="C155" s="21"/>
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
-      <c r="F155" s="7"/>
+      <c r="F155" s="21"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="6"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H155" s="7"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="16"/>
       <c r="B156" s="18"/>
       <c r="C156" s="21"/>
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
-      <c r="F156" s="7"/>
+      <c r="F156" s="21"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H156" s="7"/>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="16"/>
       <c r="B157" s="18"/>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
-      <c r="F157" s="7"/>
+      <c r="F157" s="21"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H157" s="7"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="16"/>
       <c r="B158" s="18"/>
       <c r="C158" s="21"/>
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
-      <c r="F158" s="7"/>
+      <c r="F158" s="21"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H158" s="7"/>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="16"/>
       <c r="B159" s="18"/>
       <c r="C159" s="21"/>
       <c r="D159" s="21"/>
       <c r="E159" s="21"/>
-      <c r="F159" s="7"/>
+      <c r="F159" s="21"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="6"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H159" s="7"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="16"/>
       <c r="B160" s="18"/>
       <c r="C160" s="21"/>
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
-      <c r="F160" s="7"/>
+      <c r="F160" s="21"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="6"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H160" s="7"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="16"/>
       <c r="B161" s="18"/>
       <c r="C161" s="21"/>
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
-      <c r="F161" s="7"/>
+      <c r="F161" s="21"/>
       <c r="G161" s="7"/>
-      <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H161" s="7"/>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="16"/>
       <c r="B162" s="18"/>
       <c r="C162" s="21"/>
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
-      <c r="F162" s="7"/>
+      <c r="F162" s="21"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H162" s="7"/>
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="16"/>
       <c r="B163" s="18"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
-      <c r="F163" s="7"/>
+      <c r="F163" s="21"/>
       <c r="G163" s="7"/>
-      <c r="H163" s="6"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H163" s="7"/>
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="16"/>
       <c r="B164" s="18"/>
       <c r="C164" s="21"/>
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
-      <c r="F164" s="7"/>
+      <c r="F164" s="21"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H164" s="7"/>
+      <c r="I164" s="6"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="16"/>
       <c r="B165" s="18"/>
       <c r="C165" s="21"/>
       <c r="D165" s="21"/>
       <c r="E165" s="21"/>
-      <c r="F165" s="7"/>
+      <c r="F165" s="21"/>
       <c r="G165" s="7"/>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H165" s="7"/>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="16"/>
       <c r="B166" s="18"/>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
-      <c r="F166" s="7"/>
+      <c r="F166" s="21"/>
       <c r="G166" s="7"/>
-      <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H166" s="7"/>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="16"/>
       <c r="B167" s="18"/>
       <c r="C167" s="21"/>
       <c r="D167" s="21"/>
       <c r="E167" s="21"/>
-      <c r="F167" s="7"/>
+      <c r="F167" s="21"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H167" s="7"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="16"/>
       <c r="B168" s="18"/>
       <c r="C168" s="21"/>
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
-      <c r="F168" s="7"/>
+      <c r="F168" s="21"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H168" s="7"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="16"/>
       <c r="B169" s="18"/>
       <c r="C169" s="21"/>
       <c r="D169" s="21"/>
       <c r="E169" s="21"/>
-      <c r="F169" s="7"/>
+      <c r="F169" s="21"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="6"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H169" s="7"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="16"/>
       <c r="B170" s="18"/>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
-      <c r="F170" s="7"/>
+      <c r="F170" s="21"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H170" s="7"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="16"/>
       <c r="B171" s="18"/>
       <c r="C171" s="21"/>
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
-      <c r="F171" s="7"/>
+      <c r="F171" s="21"/>
       <c r="G171" s="7"/>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H171" s="7"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="16"/>
       <c r="B172" s="18"/>
       <c r="C172" s="21"/>
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="21"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H172" s="7"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="16"/>
       <c r="B173" s="18"/>
       <c r="C173" s="21"/>
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
-      <c r="F173" s="7"/>
+      <c r="F173" s="21"/>
       <c r="G173" s="7"/>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H173" s="7"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="16"/>
       <c r="B174" s="18"/>
       <c r="C174" s="21"/>
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
-      <c r="F174" s="7"/>
+      <c r="F174" s="21"/>
       <c r="G174" s="7"/>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H174" s="7"/>
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="16"/>
       <c r="B175" s="18"/>
       <c r="C175" s="21"/>
       <c r="D175" s="21"/>
       <c r="E175" s="21"/>
-      <c r="F175" s="7"/>
+      <c r="F175" s="21"/>
       <c r="G175" s="7"/>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H175" s="7"/>
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="16"/>
       <c r="B176" s="18"/>
       <c r="C176" s="21"/>
       <c r="D176" s="21"/>
       <c r="E176" s="21"/>
-      <c r="F176" s="7"/>
+      <c r="F176" s="21"/>
       <c r="G176" s="7"/>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H176" s="7"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="16"/>
       <c r="B177" s="18"/>
       <c r="C177" s="21"/>
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
-      <c r="F177" s="7"/>
+      <c r="F177" s="21"/>
       <c r="G177" s="7"/>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H177" s="7"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="16"/>
       <c r="B178" s="18"/>
       <c r="C178" s="21"/>
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
-      <c r="F178" s="7"/>
+      <c r="F178" s="21"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H178" s="7"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="16"/>
       <c r="B179" s="18"/>
       <c r="C179" s="21"/>
       <c r="D179" s="21"/>
       <c r="E179" s="21"/>
-      <c r="F179" s="7"/>
+      <c r="F179" s="21"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H179" s="7"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="16"/>
       <c r="B180" s="18"/>
       <c r="C180" s="21"/>
       <c r="D180" s="21"/>
       <c r="E180" s="21"/>
-      <c r="F180" s="7"/>
+      <c r="F180" s="21"/>
       <c r="G180" s="7"/>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H180" s="7"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="16"/>
       <c r="B181" s="18"/>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
       <c r="E181" s="21"/>
-      <c r="F181" s="7"/>
+      <c r="F181" s="21"/>
       <c r="G181" s="7"/>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H181" s="7"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="16"/>
       <c r="B182" s="18"/>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
       <c r="E182" s="21"/>
-      <c r="F182" s="7"/>
+      <c r="F182" s="21"/>
       <c r="G182" s="7"/>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H182" s="7"/>
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="16"/>
       <c r="B183" s="18"/>
       <c r="C183" s="21"/>
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
-      <c r="F183" s="7"/>
+      <c r="F183" s="21"/>
       <c r="G183" s="7"/>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H183" s="7"/>
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="16"/>
       <c r="B184" s="18"/>
       <c r="C184" s="21"/>
       <c r="D184" s="21"/>
       <c r="E184" s="21"/>
-      <c r="F184" s="7"/>
+      <c r="F184" s="21"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H184" s="7"/>
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="16"/>
       <c r="B185" s="18"/>
       <c r="C185" s="21"/>
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
-      <c r="F185" s="7"/>
+      <c r="F185" s="21"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H185" s="7"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="16"/>
       <c r="B186" s="18"/>
       <c r="C186" s="21"/>
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
-      <c r="F186" s="7"/>
+      <c r="F186" s="21"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H186" s="7"/>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="16"/>
       <c r="B187" s="18"/>
       <c r="C187" s="21"/>
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
-      <c r="F187" s="7"/>
+      <c r="F187" s="21"/>
       <c r="G187" s="7"/>
-      <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H187" s="7"/>
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="16"/>
       <c r="B188" s="18"/>
       <c r="C188" s="21"/>
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
-      <c r="F188" s="7"/>
+      <c r="F188" s="21"/>
       <c r="G188" s="7"/>
-      <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H188" s="7"/>
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="16"/>
       <c r="B189" s="18"/>
       <c r="C189" s="21"/>
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
-      <c r="F189" s="7"/>
+      <c r="F189" s="21"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H189" s="7"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="16"/>
       <c r="B190" s="18"/>
       <c r="C190" s="21"/>
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
-      <c r="F190" s="7"/>
+      <c r="F190" s="21"/>
       <c r="G190" s="7"/>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H190" s="7"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="16"/>
       <c r="B191" s="18"/>
       <c r="C191" s="21"/>
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
-      <c r="F191" s="7"/>
+      <c r="F191" s="21"/>
       <c r="G191" s="7"/>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H191" s="7"/>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="16"/>
       <c r="B192" s="18"/>
       <c r="C192" s="21"/>
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
-      <c r="F192" s="7"/>
+      <c r="F192" s="21"/>
       <c r="G192" s="7"/>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H192" s="7"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="16"/>
       <c r="B193" s="18"/>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
-      <c r="F193" s="7"/>
+      <c r="F193" s="21"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H193" s="7"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="16"/>
       <c r="B194" s="18"/>
       <c r="C194" s="21"/>
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
-      <c r="F194" s="7"/>
+      <c r="F194" s="21"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H194" s="7"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="16"/>
       <c r="B195" s="18"/>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
-      <c r="F195" s="7"/>
+      <c r="F195" s="21"/>
       <c r="G195" s="7"/>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H195" s="7"/>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="16"/>
       <c r="B196" s="18"/>
       <c r="C196" s="21"/>
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
-      <c r="F196" s="7"/>
+      <c r="F196" s="21"/>
       <c r="G196" s="7"/>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H196" s="7"/>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="16"/>
       <c r="B197" s="18"/>
       <c r="C197" s="21"/>
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
-      <c r="F197" s="7"/>
+      <c r="F197" s="21"/>
       <c r="G197" s="7"/>
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H197" s="7"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="16"/>
       <c r="B198" s="18"/>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
-      <c r="F198" s="7"/>
+      <c r="F198" s="21"/>
       <c r="G198" s="7"/>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H198" s="7"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="16"/>
       <c r="B199" s="18"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
-      <c r="F199" s="7"/>
+      <c r="F199" s="21"/>
       <c r="G199" s="7"/>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H199" s="7"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="16"/>
       <c r="B200" s="18"/>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
-      <c r="F200" s="7"/>
+      <c r="F200" s="21"/>
       <c r="G200" s="7"/>
-      <c r="H200" s="6"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H200" s="7"/>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="16"/>
       <c r="B201" s="18"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
-      <c r="F201" s="7"/>
+      <c r="F201" s="21"/>
       <c r="G201" s="7"/>
-      <c r="H201" s="6"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F96:F1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G96:G1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
       <formula1>"Success,Failure"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Standard,Template"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="G2:G1048576" xr:uid="{2323171A-845D-47DE-B3AE-AB621BC14370}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="H2:H1048576" xr:uid="{2323171A-845D-47DE-B3AE-AB621BC14370}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E1048576" xr:uid="{E16EB4D3-6A48-4B14-ADE7-989F77F8C434}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F1048576" xr:uid="{E16EB4D3-6A48-4B14-ADE7-989F77F8C434}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4408,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C56BFCF-B6B9-49A6-94E9-FCC0528B1E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC0A78-3E2E-4B94-840F-95D6F0243FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC0A78-3E2E-4B94-840F-95D6F0243FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DDA4E-5C7D-4AD9-81C2-38B26755C145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DDA4E-5C7D-4AD9-81C2-38B26755C145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A68C29-896E-497E-ACD1-39BDAFF4F86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A68C29-896E-497E-ACD1-39BDAFF4F86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06EA6AF-BC03-4920-829A-9D5B06679E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06EA6AF-BC03-4920-829A-9D5B06679E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BA5B9-A901-47DE-8C92-41425B27C871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BA5B9-A901-47DE-8C92-41425B27C871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85514F-91C0-4046-95D6-9486AF31AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85514F-91C0-4046-95D6-9486AF31AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707E027-DD64-4CC7-A466-3534DE00E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1208,15 +1208,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.75" style="1" customWidth="1"/>
     <col min="5" max="7" width="36" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -1252,7 +1252,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1262,7 +1262,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -1272,7 +1272,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1282,7 +1282,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -1292,7 +1292,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1302,7 +1302,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -1312,7 +1312,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -1322,7 +1322,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -1332,7 +1332,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1342,7 +1342,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1352,7 +1352,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1362,7 +1362,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1372,7 +1372,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1382,7 +1382,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1392,7 +1392,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1402,7 +1402,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1412,7 +1412,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -1424,7 +1424,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1434,7 +1434,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1444,7 +1444,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1454,7 +1454,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1464,7 +1464,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1474,7 +1474,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1484,7 +1484,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1494,7 +1494,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1504,7 +1504,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1514,7 +1514,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1524,7 +1524,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1534,7 +1534,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1544,7 +1544,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1554,7 +1554,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1564,7 +1564,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1574,7 +1574,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1584,7 +1584,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1594,7 +1594,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1604,7 +1604,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1614,7 +1614,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1624,7 +1624,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1634,7 +1634,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1644,7 +1644,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1654,7 +1654,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1664,7 +1664,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1674,7 +1674,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1684,7 +1684,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1694,7 +1694,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1704,7 +1704,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1714,7 +1714,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1724,7 +1724,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1734,7 +1734,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1744,7 +1744,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1754,7 +1754,7 @@
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1764,7 +1764,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1774,7 +1774,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1784,7 +1784,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1794,7 +1794,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="5"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1804,7 +1804,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1814,7 +1814,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="5"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1824,7 +1824,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1834,7 +1834,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1844,7 +1844,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="5"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1854,7 +1854,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="5"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1864,7 +1864,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1874,7 +1874,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1884,7 +1884,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1894,7 +1894,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1904,7 +1904,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1914,7 +1914,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1924,7 +1924,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1934,7 +1934,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1944,7 +1944,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1954,7 +1954,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1964,7 +1964,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1974,7 +1974,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1984,7 +1984,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1994,7 +1994,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="5"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2004,7 +2004,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2014,7 +2014,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2024,7 +2024,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2034,7 +2034,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="5"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2044,7 +2044,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="5"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2054,7 +2054,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="5"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2064,7 +2064,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2074,7 +2074,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="5"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2084,7 +2084,7 @@
       <c r="G85" s="9"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="5"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -2094,7 +2094,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="5"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2104,7 +2104,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="5"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -2114,7 +2114,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -2124,7 +2124,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="5"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2134,7 +2134,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -2144,7 +2144,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="5"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2154,7 +2154,7 @@
       <c r="G92" s="9"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="5"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2164,7 +2164,7 @@
       <c r="G93" s="9"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -2174,7 +2174,7 @@
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="5"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -2184,7 +2184,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -2194,7 +2194,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="5"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -2204,7 +2204,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="5"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -2214,7 +2214,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="5"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -2224,7 +2224,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="5"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -2234,7 +2234,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -2244,7 +2244,7 @@
       <c r="G101" s="22"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="5"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -2254,7 +2254,7 @@
       <c r="G102" s="9"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="5"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -2264,7 +2264,7 @@
       <c r="G103" s="9"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="5"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -2274,7 +2274,7 @@
       <c r="G104" s="9"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="5"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -2284,7 +2284,7 @@
       <c r="G105" s="9"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="5"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -2294,7 +2294,7 @@
       <c r="G106" s="9"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="5"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -2304,7 +2304,7 @@
       <c r="G107" s="9"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="5"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2314,7 +2314,7 @@
       <c r="G108" s="9"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="5"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -2324,7 +2324,7 @@
       <c r="G109" s="9"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="5"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -2334,7 +2334,7 @@
       <c r="G110" s="9"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="5"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -2344,7 +2344,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -2354,7 +2354,7 @@
       <c r="G112" s="9"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="5"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -2364,7 +2364,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="5"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2374,7 +2374,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="5"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -2384,7 +2384,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="5"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -2394,7 +2394,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="5"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -2404,7 +2404,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="5"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -2414,7 +2414,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="5"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -2424,7 +2424,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="5"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -2434,7 +2434,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="5"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -2444,7 +2444,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="5"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -2454,7 +2454,7 @@
       <c r="G122" s="9"/>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="5"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -2464,7 +2464,7 @@
       <c r="G123" s="9"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="5"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -2474,7 +2474,7 @@
       <c r="G124" s="9"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="5"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -2484,7 +2484,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="5"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -2494,7 +2494,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="5"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -2504,7 +2504,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="5"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -2514,7 +2514,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="5"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -2524,7 +2524,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="5"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -2534,7 +2534,7 @@
       <c r="G130" s="9"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="5"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -2544,7 +2544,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="5"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -2554,7 +2554,7 @@
       <c r="G132" s="9"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="5"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -2564,7 +2564,7 @@
       <c r="G133" s="9"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="5"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -2574,7 +2574,7 @@
       <c r="G134" s="9"/>
       <c r="H134" s="14"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -2584,7 +2584,7 @@
       <c r="G135" s="9"/>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="5"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -2594,7 +2594,7 @@
       <c r="G136" s="9"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="5"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -2604,7 +2604,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="5"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -2614,7 +2614,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="5"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -2624,7 +2624,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="5"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -2634,7 +2634,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="5"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -2644,7 +2644,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="5"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -2654,7 +2654,7 @@
       <c r="G142" s="9"/>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -2664,7 +2664,7 @@
       <c r="G143" s="9"/>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="5"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -2674,7 +2674,7 @@
       <c r="G144" s="9"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="5"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -2684,7 +2684,7 @@
       <c r="G145" s="9"/>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="5"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -2694,7 +2694,7 @@
       <c r="G146" s="9"/>
       <c r="H146" s="14"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="5"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -2704,7 +2704,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="5"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -2714,7 +2714,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="5"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -2724,7 +2724,7 @@
       <c r="G149" s="9"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="5"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -2734,7 +2734,7 @@
       <c r="G150" s="9"/>
       <c r="H150" s="14"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="5"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -2744,7 +2744,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="5"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -2754,7 +2754,7 @@
       <c r="G152" s="9"/>
       <c r="H152" s="14"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="5"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -2764,7 +2764,7 @@
       <c r="G153" s="9"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="5"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -2774,7 +2774,7 @@
       <c r="G154" s="9"/>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="5"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -2784,7 +2784,7 @@
       <c r="G155" s="9"/>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="5"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -2794,7 +2794,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="5"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -2804,7 +2804,7 @@
       <c r="G157" s="9"/>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="5"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -2814,7 +2814,7 @@
       <c r="G158" s="9"/>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="5"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -2824,7 +2824,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="5"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -2834,7 +2834,7 @@
       <c r="G160" s="9"/>
       <c r="H160" s="14"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="5"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -2844,7 +2844,7 @@
       <c r="G161" s="9"/>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="5"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -2854,7 +2854,7 @@
       <c r="G162" s="9"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="5"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -2864,7 +2864,7 @@
       <c r="G163" s="9"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="5"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -2874,7 +2874,7 @@
       <c r="G164" s="9"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="5"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -2884,7 +2884,7 @@
       <c r="G165" s="9"/>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="5"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -2894,7 +2894,7 @@
       <c r="G166" s="9"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="5"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -2904,7 +2904,7 @@
       <c r="G167" s="9"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="5"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -2914,7 +2914,7 @@
       <c r="G168" s="9"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="5"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -2924,7 +2924,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="5"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -2934,7 +2934,7 @@
       <c r="G170" s="9"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="5"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -2944,7 +2944,7 @@
       <c r="G171" s="9"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="5"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -2954,7 +2954,7 @@
       <c r="G172" s="9"/>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="5"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -2964,7 +2964,7 @@
       <c r="G173" s="9"/>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="5"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -2974,7 +2974,7 @@
       <c r="G174" s="9"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="5"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -2984,7 +2984,7 @@
       <c r="G175" s="9"/>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="5"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -2994,7 +2994,7 @@
       <c r="G176" s="9"/>
       <c r="H176" s="14"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="5"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -3004,7 +3004,7 @@
       <c r="G177" s="9"/>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="5"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -3014,7 +3014,7 @@
       <c r="G178" s="9"/>
       <c r="H178" s="14"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -3024,7 +3024,7 @@
       <c r="G179" s="9"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="5"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -3034,7 +3034,7 @@
       <c r="G180" s="9"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="5"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -3044,7 +3044,7 @@
       <c r="G181" s="9"/>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="5"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -3054,7 +3054,7 @@
       <c r="G182" s="9"/>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -3064,7 +3064,7 @@
       <c r="G183" s="9"/>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -3074,7 +3074,7 @@
       <c r="G184" s="9"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="5"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -3084,7 +3084,7 @@
       <c r="G185" s="9"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="5"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -3094,7 +3094,7 @@
       <c r="G186" s="9"/>
       <c r="H186" s="14"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="5"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -3104,7 +3104,7 @@
       <c r="G187" s="9"/>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="5"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -3114,7 +3114,7 @@
       <c r="G188" s="9"/>
       <c r="H188" s="14"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="5"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -3124,7 +3124,7 @@
       <c r="G189" s="9"/>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="5"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -3134,7 +3134,7 @@
       <c r="G190" s="9"/>
       <c r="H190" s="14"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="5"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -3144,7 +3144,7 @@
       <c r="G191" s="9"/>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="5"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -3154,7 +3154,7 @@
       <c r="G192" s="9"/>
       <c r="H192" s="14"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="5"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -3164,7 +3164,7 @@
       <c r="G193" s="9"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="5"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -3174,7 +3174,7 @@
       <c r="G194" s="9"/>
       <c r="H194" s="14"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="5"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -3184,7 +3184,7 @@
       <c r="G195" s="9"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="5"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -3194,7 +3194,7 @@
       <c r="G196" s="9"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="5"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -3204,7 +3204,7 @@
       <c r="G197" s="9"/>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="5"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -3214,7 +3214,7 @@
       <c r="G198" s="9"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="5"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -3224,7 +3224,7 @@
       <c r="G199" s="9"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="5"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -3234,7 +3234,7 @@
       <c r="G200" s="9"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="11"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -3271,20 +3271,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="3" width="25.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="45.75" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.4140625" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="21"/>
@@ -3324,7 +3324,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="21"/>
@@ -3335,7 +3335,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="18"/>
       <c r="C4" s="21"/>
@@ -3346,7 +3346,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="18"/>
       <c r="C5" s="21"/>
@@ -3357,7 +3357,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="21"/>
@@ -3368,7 +3368,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="18"/>
       <c r="C7" s="21"/>
@@ -3379,7 +3379,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="18"/>
       <c r="C8" s="21"/>
@@ -3390,7 +3390,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="18"/>
       <c r="C9" s="21"/>
@@ -3401,7 +3401,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="18"/>
       <c r="C10" s="21"/>
@@ -3412,7 +3412,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="18"/>
       <c r="C11" s="21"/>
@@ -3423,7 +3423,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="18"/>
       <c r="C12" s="21"/>
@@ -3434,7 +3434,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="18"/>
       <c r="C13" s="21"/>
@@ -3445,7 +3445,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="18"/>
       <c r="C14" s="21"/>
@@ -3456,7 +3456,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
@@ -3467,7 +3467,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
@@ -3478,7 +3478,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="18"/>
       <c r="C17" s="21"/>
@@ -3489,7 +3489,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="18"/>
       <c r="C18" s="21"/>
@@ -3500,7 +3500,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="18"/>
       <c r="C19" s="21"/>
@@ -3511,7 +3511,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="18"/>
       <c r="C20" s="21"/>
@@ -3522,7 +3522,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="18"/>
       <c r="C21" s="21"/>
@@ -3533,7 +3533,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
       <c r="C22" s="21"/>
@@ -3544,7 +3544,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="18"/>
       <c r="C23" s="21"/>
@@ -3555,7 +3555,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="18"/>
       <c r="C24" s="21"/>
@@ -3566,7 +3566,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="18"/>
       <c r="C25" s="21"/>
@@ -3577,7 +3577,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="21"/>
@@ -3588,7 +3588,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
       <c r="C27" s="21"/>
@@ -3599,7 +3599,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="18"/>
       <c r="C28" s="21"/>
@@ -3610,7 +3610,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="18"/>
       <c r="C29" s="21"/>
@@ -3621,7 +3621,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="18"/>
       <c r="C30" s="21"/>
@@ -3632,7 +3632,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="18"/>
       <c r="C31" s="21"/>
@@ -3643,7 +3643,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="18"/>
       <c r="C32" s="21"/>
@@ -3654,7 +3654,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="18"/>
       <c r="C33" s="21"/>
@@ -3665,7 +3665,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="18"/>
       <c r="C34" s="21"/>
@@ -3676,7 +3676,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="18"/>
       <c r="C35" s="21"/>
@@ -3687,7 +3687,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="18"/>
       <c r="C36" s="21"/>
@@ -3698,7 +3698,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="18"/>
       <c r="C37" s="21"/>
@@ -3709,7 +3709,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="18"/>
       <c r="C38" s="21"/>
@@ -3720,7 +3720,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="18"/>
       <c r="C39" s="21"/>
@@ -3731,7 +3731,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="18"/>
       <c r="C40" s="21"/>
@@ -3742,7 +3742,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="18"/>
       <c r="C41" s="21"/>
@@ -3753,7 +3753,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
       <c r="B42" s="18"/>
       <c r="C42" s="21"/>
@@ -3764,7 +3764,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="18"/>
       <c r="C43" s="21"/>
@@ -3775,7 +3775,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="18"/>
       <c r="C44" s="21"/>
@@ -3786,7 +3786,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="16"/>
       <c r="B45" s="18"/>
       <c r="C45" s="21"/>
@@ -3797,7 +3797,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="18"/>
       <c r="C46" s="21"/>
@@ -3808,7 +3808,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="18"/>
       <c r="C47" s="21"/>
@@ -3819,7 +3819,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="16"/>
       <c r="B48" s="18"/>
       <c r="C48" s="21"/>
@@ -3830,7 +3830,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="18"/>
       <c r="C49" s="21"/>
@@ -3841,7 +3841,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="18"/>
       <c r="C50" s="21"/>
@@ -3852,7 +3852,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="16"/>
       <c r="B51" s="18"/>
       <c r="C51" s="21"/>
@@ -3863,7 +3863,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="18"/>
       <c r="C52" s="21"/>
@@ -3874,7 +3874,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="18"/>
       <c r="C53" s="21"/>
@@ -3885,7 +3885,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="18"/>
       <c r="C54" s="21"/>
@@ -3896,7 +3896,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="16"/>
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
@@ -3907,7 +3907,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="16"/>
       <c r="B56" s="18"/>
       <c r="C56" s="21"/>
@@ -3918,7 +3918,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="18"/>
       <c r="C57" s="21"/>
@@ -3929,7 +3929,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="16"/>
       <c r="B58" s="18"/>
       <c r="C58" s="21"/>
@@ -3940,7 +3940,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="18"/>
       <c r="C59" s="21"/>
@@ -3951,7 +3951,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="18"/>
       <c r="C60" s="21"/>
@@ -3962,7 +3962,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="16"/>
       <c r="B61" s="18"/>
       <c r="C61" s="21"/>
@@ -3973,7 +3973,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="18"/>
       <c r="C62" s="21"/>
@@ -3984,7 +3984,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="18"/>
       <c r="C63" s="21"/>
@@ -3995,7 +3995,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="16"/>
       <c r="B64" s="18"/>
       <c r="C64" s="21"/>
@@ -4006,7 +4006,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="16"/>
       <c r="B65" s="18"/>
       <c r="C65" s="21"/>
@@ -4017,7 +4017,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="18"/>
       <c r="C66" s="21"/>
@@ -4028,7 +4028,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="16"/>
       <c r="B67" s="18"/>
       <c r="C67" s="21"/>
@@ -4039,7 +4039,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
@@ -4050,7 +4050,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="18"/>
       <c r="C69" s="21"/>
@@ -4061,7 +4061,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="16"/>
       <c r="B70" s="18"/>
       <c r="C70" s="21"/>
@@ -4072,7 +4072,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="16"/>
       <c r="B71" s="18"/>
       <c r="C71" s="21"/>
@@ -4083,7 +4083,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="16"/>
       <c r="B72" s="18"/>
       <c r="C72" s="21"/>
@@ -4094,7 +4094,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="16"/>
       <c r="B73" s="18"/>
       <c r="C73" s="21"/>
@@ -4105,7 +4105,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="18"/>
       <c r="C74" s="21"/>
@@ -4116,7 +4116,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="16"/>
       <c r="B75" s="18"/>
       <c r="C75" s="21"/>
@@ -4127,7 +4127,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="16"/>
       <c r="B76" s="18"/>
       <c r="C76" s="21"/>
@@ -4138,7 +4138,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="16"/>
       <c r="B77" s="18"/>
       <c r="C77" s="21"/>
@@ -4149,7 +4149,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="16"/>
       <c r="B78" s="18"/>
       <c r="C78" s="21"/>
@@ -4160,7 +4160,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="16"/>
       <c r="B79" s="18"/>
       <c r="C79" s="21"/>
@@ -4171,7 +4171,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="16"/>
       <c r="B80" s="18"/>
       <c r="C80" s="21"/>
@@ -4182,7 +4182,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="16"/>
       <c r="B81" s="18"/>
       <c r="C81" s="21"/>
@@ -4193,7 +4193,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="16"/>
       <c r="B82" s="18"/>
       <c r="C82" s="21"/>
@@ -4204,7 +4204,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="16"/>
       <c r="B83" s="18"/>
       <c r="C83" s="21"/>
@@ -4215,7 +4215,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="16"/>
       <c r="B84" s="18"/>
       <c r="C84" s="21"/>
@@ -4226,7 +4226,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="16"/>
       <c r="B85" s="18"/>
       <c r="C85" s="21"/>
@@ -4237,7 +4237,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="16"/>
       <c r="B86" s="18"/>
       <c r="C86" s="21"/>
@@ -4248,7 +4248,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="16"/>
       <c r="B87" s="18"/>
       <c r="C87" s="21"/>
@@ -4259,7 +4259,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="16"/>
       <c r="B88" s="18"/>
       <c r="C88" s="21"/>
@@ -4270,7 +4270,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="16"/>
       <c r="B89" s="18"/>
       <c r="C89" s="21"/>
@@ -4281,7 +4281,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="16"/>
       <c r="B90" s="18"/>
       <c r="C90" s="21"/>
@@ -4292,7 +4292,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="16"/>
       <c r="B91" s="18"/>
       <c r="C91" s="21"/>
@@ -4303,7 +4303,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="16"/>
       <c r="B92" s="18"/>
       <c r="C92" s="21"/>
@@ -4314,7 +4314,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="16"/>
       <c r="B93" s="18"/>
       <c r="C93" s="21"/>
@@ -4325,7 +4325,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="16"/>
       <c r="B94" s="18"/>
       <c r="C94" s="21"/>
@@ -4336,7 +4336,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="16"/>
       <c r="B95" s="18"/>
       <c r="C95" s="21"/>
@@ -4347,7 +4347,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="16"/>
       <c r="B96" s="18"/>
       <c r="C96" s="21"/>
@@ -4358,7 +4358,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="16"/>
       <c r="B97" s="18"/>
       <c r="C97" s="21"/>
@@ -4369,7 +4369,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="16"/>
       <c r="B98" s="18"/>
       <c r="C98" s="21"/>
@@ -4380,7 +4380,7 @@
       <c r="H98" s="7"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="16"/>
       <c r="B99" s="18"/>
       <c r="C99" s="21"/>
@@ -4391,7 +4391,7 @@
       <c r="H99" s="7"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="16"/>
       <c r="B100" s="18"/>
       <c r="C100" s="21"/>
@@ -4402,7 +4402,7 @@
       <c r="H100" s="7"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="16"/>
       <c r="B101" s="18"/>
       <c r="C101" s="21"/>
@@ -4413,7 +4413,7 @@
       <c r="H101" s="7"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="16"/>
       <c r="B102" s="18"/>
       <c r="C102" s="21"/>
@@ -4424,7 +4424,7 @@
       <c r="H102" s="7"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="16"/>
       <c r="B103" s="18"/>
       <c r="C103" s="21"/>
@@ -4435,7 +4435,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="16"/>
       <c r="B104" s="18"/>
       <c r="C104" s="21"/>
@@ -4446,7 +4446,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="16"/>
       <c r="B105" s="18"/>
       <c r="C105" s="21"/>
@@ -4457,7 +4457,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="16"/>
       <c r="B106" s="18"/>
       <c r="C106" s="21"/>
@@ -4468,7 +4468,7 @@
       <c r="H106" s="7"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="16"/>
       <c r="B107" s="18"/>
       <c r="C107" s="21"/>
@@ -4479,7 +4479,7 @@
       <c r="H107" s="7"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="16"/>
       <c r="B108" s="18"/>
       <c r="C108" s="21"/>
@@ -4490,7 +4490,7 @@
       <c r="H108" s="7"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="16"/>
       <c r="B109" s="18"/>
       <c r="C109" s="21"/>
@@ -4501,7 +4501,7 @@
       <c r="H109" s="7"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="16"/>
       <c r="B110" s="18"/>
       <c r="C110" s="21"/>
@@ -4512,7 +4512,7 @@
       <c r="H110" s="7"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="16"/>
       <c r="B111" s="18"/>
       <c r="C111" s="21"/>
@@ -4523,7 +4523,7 @@
       <c r="H111" s="7"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="16"/>
       <c r="B112" s="18"/>
       <c r="C112" s="21"/>
@@ -4534,7 +4534,7 @@
       <c r="H112" s="7"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="16"/>
       <c r="B113" s="18"/>
       <c r="C113" s="21"/>
@@ -4545,7 +4545,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="16"/>
       <c r="B114" s="18"/>
       <c r="C114" s="21"/>
@@ -4556,7 +4556,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="16"/>
       <c r="B115" s="18"/>
       <c r="C115" s="21"/>
@@ -4567,7 +4567,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="16"/>
       <c r="B116" s="18"/>
       <c r="C116" s="21"/>
@@ -4578,7 +4578,7 @@
       <c r="H116" s="7"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="16"/>
       <c r="B117" s="18"/>
       <c r="C117" s="21"/>
@@ -4589,7 +4589,7 @@
       <c r="H117" s="7"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="16"/>
       <c r="B118" s="18"/>
       <c r="C118" s="21"/>
@@ -4600,7 +4600,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="16"/>
       <c r="B119" s="18"/>
       <c r="C119" s="21"/>
@@ -4611,7 +4611,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="16"/>
       <c r="B120" s="18"/>
       <c r="C120" s="21"/>
@@ -4622,7 +4622,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="16"/>
       <c r="B121" s="18"/>
       <c r="C121" s="21"/>
@@ -4633,7 +4633,7 @@
       <c r="H121" s="7"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="16"/>
       <c r="B122" s="18"/>
       <c r="C122" s="21"/>
@@ -4644,7 +4644,7 @@
       <c r="H122" s="7"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="16"/>
       <c r="B123" s="18"/>
       <c r="C123" s="21"/>
@@ -4655,7 +4655,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="16"/>
       <c r="B124" s="18"/>
       <c r="C124" s="21"/>
@@ -4666,7 +4666,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="16"/>
       <c r="B125" s="18"/>
       <c r="C125" s="21"/>
@@ -4677,7 +4677,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="16"/>
       <c r="B126" s="18"/>
       <c r="C126" s="21"/>
@@ -4688,7 +4688,7 @@
       <c r="H126" s="7"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="16"/>
       <c r="B127" s="18"/>
       <c r="C127" s="21"/>
@@ -4699,7 +4699,7 @@
       <c r="H127" s="7"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="16"/>
       <c r="B128" s="18"/>
       <c r="C128" s="21"/>
@@ -4710,7 +4710,7 @@
       <c r="H128" s="7"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="16"/>
       <c r="B129" s="18"/>
       <c r="C129" s="21"/>
@@ -4721,7 +4721,7 @@
       <c r="H129" s="7"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="16"/>
       <c r="B130" s="18"/>
       <c r="C130" s="21"/>
@@ -4732,7 +4732,7 @@
       <c r="H130" s="7"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="16"/>
       <c r="B131" s="18"/>
       <c r="C131" s="21"/>
@@ -4743,7 +4743,7 @@
       <c r="H131" s="7"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="16"/>
       <c r="B132" s="18"/>
       <c r="C132" s="21"/>
@@ -4754,7 +4754,7 @@
       <c r="H132" s="7"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="16"/>
       <c r="B133" s="18"/>
       <c r="C133" s="21"/>
@@ -4765,7 +4765,7 @@
       <c r="H133" s="7"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="16"/>
       <c r="B134" s="18"/>
       <c r="C134" s="21"/>
@@ -4776,7 +4776,7 @@
       <c r="H134" s="7"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="16"/>
       <c r="B135" s="18"/>
       <c r="C135" s="21"/>
@@ -4787,7 +4787,7 @@
       <c r="H135" s="7"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="16"/>
       <c r="B136" s="18"/>
       <c r="C136" s="21"/>
@@ -4798,7 +4798,7 @@
       <c r="H136" s="7"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="16"/>
       <c r="B137" s="18"/>
       <c r="C137" s="21"/>
@@ -4809,7 +4809,7 @@
       <c r="H137" s="7"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="16"/>
       <c r="B138" s="18"/>
       <c r="C138" s="21"/>
@@ -4820,7 +4820,7 @@
       <c r="H138" s="7"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="16"/>
       <c r="B139" s="18"/>
       <c r="C139" s="21"/>
@@ -4831,7 +4831,7 @@
       <c r="H139" s="7"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="16"/>
       <c r="B140" s="18"/>
       <c r="C140" s="21"/>
@@ -4842,7 +4842,7 @@
       <c r="H140" s="7"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="16"/>
       <c r="B141" s="18"/>
       <c r="C141" s="21"/>
@@ -4853,7 +4853,7 @@
       <c r="H141" s="7"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="16"/>
       <c r="B142" s="18"/>
       <c r="C142" s="21"/>
@@ -4864,7 +4864,7 @@
       <c r="H142" s="7"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="16"/>
       <c r="B143" s="18"/>
       <c r="C143" s="21"/>
@@ -4875,7 +4875,7 @@
       <c r="H143" s="7"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="16"/>
       <c r="B144" s="18"/>
       <c r="C144" s="21"/>
@@ -4886,7 +4886,7 @@
       <c r="H144" s="7"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="16"/>
       <c r="B145" s="18"/>
       <c r="C145" s="21"/>
@@ -4897,7 +4897,7 @@
       <c r="H145" s="7"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="16"/>
       <c r="B146" s="18"/>
       <c r="C146" s="21"/>
@@ -4908,7 +4908,7 @@
       <c r="H146" s="7"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="16"/>
       <c r="B147" s="18"/>
       <c r="C147" s="21"/>
@@ -4919,7 +4919,7 @@
       <c r="H147" s="7"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="16"/>
       <c r="B148" s="18"/>
       <c r="C148" s="21"/>
@@ -4930,7 +4930,7 @@
       <c r="H148" s="7"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="16"/>
       <c r="B149" s="18"/>
       <c r="C149" s="21"/>
@@ -4941,7 +4941,7 @@
       <c r="H149" s="7"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="16"/>
       <c r="B150" s="18"/>
       <c r="C150" s="21"/>
@@ -4952,7 +4952,7 @@
       <c r="H150" s="7"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="16"/>
       <c r="B151" s="18"/>
       <c r="C151" s="21"/>
@@ -4963,7 +4963,7 @@
       <c r="H151" s="7"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="16"/>
       <c r="B152" s="18"/>
       <c r="C152" s="21"/>
@@ -4974,7 +4974,7 @@
       <c r="H152" s="7"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="16"/>
       <c r="B153" s="18"/>
       <c r="C153" s="21"/>
@@ -4985,7 +4985,7 @@
       <c r="H153" s="7"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="16"/>
       <c r="B154" s="18"/>
       <c r="C154" s="21"/>
@@ -4996,7 +4996,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="16"/>
       <c r="B155" s="18"/>
       <c r="C155" s="21"/>
@@ -5007,7 +5007,7 @@
       <c r="H155" s="7"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="16"/>
       <c r="B156" s="18"/>
       <c r="C156" s="21"/>
@@ -5018,7 +5018,7 @@
       <c r="H156" s="7"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="16"/>
       <c r="B157" s="18"/>
       <c r="C157" s="21"/>
@@ -5029,7 +5029,7 @@
       <c r="H157" s="7"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="16"/>
       <c r="B158" s="18"/>
       <c r="C158" s="21"/>
@@ -5040,7 +5040,7 @@
       <c r="H158" s="7"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="16"/>
       <c r="B159" s="18"/>
       <c r="C159" s="21"/>
@@ -5051,7 +5051,7 @@
       <c r="H159" s="7"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="16"/>
       <c r="B160" s="18"/>
       <c r="C160" s="21"/>
@@ -5062,7 +5062,7 @@
       <c r="H160" s="7"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="16"/>
       <c r="B161" s="18"/>
       <c r="C161" s="21"/>
@@ -5073,7 +5073,7 @@
       <c r="H161" s="7"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="16"/>
       <c r="B162" s="18"/>
       <c r="C162" s="21"/>
@@ -5084,7 +5084,7 @@
       <c r="H162" s="7"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="16"/>
       <c r="B163" s="18"/>
       <c r="C163" s="21"/>
@@ -5095,7 +5095,7 @@
       <c r="H163" s="7"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="16"/>
       <c r="B164" s="18"/>
       <c r="C164" s="21"/>
@@ -5106,7 +5106,7 @@
       <c r="H164" s="7"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="16"/>
       <c r="B165" s="18"/>
       <c r="C165" s="21"/>
@@ -5117,7 +5117,7 @@
       <c r="H165" s="7"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="16"/>
       <c r="B166" s="18"/>
       <c r="C166" s="21"/>
@@ -5128,7 +5128,7 @@
       <c r="H166" s="7"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="16"/>
       <c r="B167" s="18"/>
       <c r="C167" s="21"/>
@@ -5139,7 +5139,7 @@
       <c r="H167" s="7"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="16"/>
       <c r="B168" s="18"/>
       <c r="C168" s="21"/>
@@ -5150,7 +5150,7 @@
       <c r="H168" s="7"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="16"/>
       <c r="B169" s="18"/>
       <c r="C169" s="21"/>
@@ -5161,7 +5161,7 @@
       <c r="H169" s="7"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="16"/>
       <c r="B170" s="18"/>
       <c r="C170" s="21"/>
@@ -5172,7 +5172,7 @@
       <c r="H170" s="7"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="16"/>
       <c r="B171" s="18"/>
       <c r="C171" s="21"/>
@@ -5183,7 +5183,7 @@
       <c r="H171" s="7"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="16"/>
       <c r="B172" s="18"/>
       <c r="C172" s="21"/>
@@ -5194,7 +5194,7 @@
       <c r="H172" s="7"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="16"/>
       <c r="B173" s="18"/>
       <c r="C173" s="21"/>
@@ -5205,7 +5205,7 @@
       <c r="H173" s="7"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="16"/>
       <c r="B174" s="18"/>
       <c r="C174" s="21"/>
@@ -5216,7 +5216,7 @@
       <c r="H174" s="7"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="16"/>
       <c r="B175" s="18"/>
       <c r="C175" s="21"/>
@@ -5227,7 +5227,7 @@
       <c r="H175" s="7"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="16"/>
       <c r="B176" s="18"/>
       <c r="C176" s="21"/>
@@ -5238,7 +5238,7 @@
       <c r="H176" s="7"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="16"/>
       <c r="B177" s="18"/>
       <c r="C177" s="21"/>
@@ -5249,7 +5249,7 @@
       <c r="H177" s="7"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="16"/>
       <c r="B178" s="18"/>
       <c r="C178" s="21"/>
@@ -5260,7 +5260,7 @@
       <c r="H178" s="7"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="16"/>
       <c r="B179" s="18"/>
       <c r="C179" s="21"/>
@@ -5271,7 +5271,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="16"/>
       <c r="B180" s="18"/>
       <c r="C180" s="21"/>
@@ -5282,7 +5282,7 @@
       <c r="H180" s="7"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="16"/>
       <c r="B181" s="18"/>
       <c r="C181" s="21"/>
@@ -5293,7 +5293,7 @@
       <c r="H181" s="7"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="16"/>
       <c r="B182" s="18"/>
       <c r="C182" s="21"/>
@@ -5304,7 +5304,7 @@
       <c r="H182" s="7"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="16"/>
       <c r="B183" s="18"/>
       <c r="C183" s="21"/>
@@ -5315,7 +5315,7 @@
       <c r="H183" s="7"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="16"/>
       <c r="B184" s="18"/>
       <c r="C184" s="21"/>
@@ -5326,7 +5326,7 @@
       <c r="H184" s="7"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="16"/>
       <c r="B185" s="18"/>
       <c r="C185" s="21"/>
@@ -5337,7 +5337,7 @@
       <c r="H185" s="7"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="16"/>
       <c r="B186" s="18"/>
       <c r="C186" s="21"/>
@@ -5348,7 +5348,7 @@
       <c r="H186" s="7"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="16"/>
       <c r="B187" s="18"/>
       <c r="C187" s="21"/>
@@ -5359,7 +5359,7 @@
       <c r="H187" s="7"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="16"/>
       <c r="B188" s="18"/>
       <c r="C188" s="21"/>
@@ -5370,7 +5370,7 @@
       <c r="H188" s="7"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="16"/>
       <c r="B189" s="18"/>
       <c r="C189" s="21"/>
@@ -5381,7 +5381,7 @@
       <c r="H189" s="7"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="16"/>
       <c r="B190" s="18"/>
       <c r="C190" s="21"/>
@@ -5392,7 +5392,7 @@
       <c r="H190" s="7"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="16"/>
       <c r="B191" s="18"/>
       <c r="C191" s="21"/>
@@ -5403,7 +5403,7 @@
       <c r="H191" s="7"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="16"/>
       <c r="B192" s="18"/>
       <c r="C192" s="21"/>
@@ -5414,7 +5414,7 @@
       <c r="H192" s="7"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="16"/>
       <c r="B193" s="18"/>
       <c r="C193" s="21"/>
@@ -5425,7 +5425,7 @@
       <c r="H193" s="7"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="16"/>
       <c r="B194" s="18"/>
       <c r="C194" s="21"/>
@@ -5436,7 +5436,7 @@
       <c r="H194" s="7"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="16"/>
       <c r="B195" s="18"/>
       <c r="C195" s="21"/>
@@ -5447,7 +5447,7 @@
       <c r="H195" s="7"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="16"/>
       <c r="B196" s="18"/>
       <c r="C196" s="21"/>
@@ -5458,7 +5458,7 @@
       <c r="H196" s="7"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="16"/>
       <c r="B197" s="18"/>
       <c r="C197" s="21"/>
@@ -5469,7 +5469,7 @@
       <c r="H197" s="7"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="16"/>
       <c r="B198" s="18"/>
       <c r="C198" s="21"/>
@@ -5480,7 +5480,7 @@
       <c r="H198" s="7"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="16"/>
       <c r="B199" s="18"/>
       <c r="C199" s="21"/>
@@ -5491,7 +5491,7 @@
       <c r="H199" s="7"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="16"/>
       <c r="B200" s="18"/>
       <c r="C200" s="21"/>
@@ -5502,7 +5502,7 @@
       <c r="H200" s="7"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="16"/>
       <c r="B201" s="18"/>
       <c r="C201" s="21"/>
@@ -5546,14 +5546,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -5564,1002 +5564,1002 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="18"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="18"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="18"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="18"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="18"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="18"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="18"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="18"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="18"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="18"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="18"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="18"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="18"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="18"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="18"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="18"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="18"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="18"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="18"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="18"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="18"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="18"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="18"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="18"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="18"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="18"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="18"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="18"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="18"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="18"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="18"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="18"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
       <c r="B42" s="18"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="18"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="18"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="16"/>
       <c r="B45" s="18"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="18"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="16"/>
       <c r="B48" s="18"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="18"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="18"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="16"/>
       <c r="B51" s="18"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="18"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="18"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="18"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="16"/>
       <c r="B55" s="18"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="16"/>
       <c r="B56" s="18"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="18"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="16"/>
       <c r="B58" s="18"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="18"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="18"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="16"/>
       <c r="B61" s="18"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="18"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="18"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="16"/>
       <c r="B64" s="18"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="16"/>
       <c r="B65" s="18"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="18"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="16"/>
       <c r="B67" s="18"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="18"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="18"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="16"/>
       <c r="B70" s="18"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="16"/>
       <c r="B71" s="18"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="16"/>
       <c r="B72" s="18"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="16"/>
       <c r="B73" s="18"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="18"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="16"/>
       <c r="B75" s="18"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="16"/>
       <c r="B76" s="18"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="16"/>
       <c r="B77" s="18"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="16"/>
       <c r="B78" s="18"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="16"/>
       <c r="B79" s="18"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="16"/>
       <c r="B80" s="18"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="16"/>
       <c r="B81" s="18"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="16"/>
       <c r="B82" s="18"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="16"/>
       <c r="B83" s="18"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="16"/>
       <c r="B84" s="18"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="16"/>
       <c r="B85" s="18"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="16"/>
       <c r="B86" s="18"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="16"/>
       <c r="B87" s="18"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="16"/>
       <c r="B88" s="18"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="16"/>
       <c r="B89" s="18"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="16"/>
       <c r="B90" s="18"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="16"/>
       <c r="B91" s="18"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="16"/>
       <c r="B92" s="18"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="16"/>
       <c r="B93" s="18"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="16"/>
       <c r="B94" s="18"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="16"/>
       <c r="B95" s="18"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="16"/>
       <c r="B96" s="18"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="16"/>
       <c r="B97" s="18"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="16"/>
       <c r="B98" s="18"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="16"/>
       <c r="B99" s="18"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="16"/>
       <c r="B100" s="18"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="16"/>
       <c r="B101" s="18"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="16"/>
       <c r="B102" s="18"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="16"/>
       <c r="B103" s="18"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="16"/>
       <c r="B104" s="18"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="16"/>
       <c r="B105" s="18"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="16"/>
       <c r="B106" s="18"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="16"/>
       <c r="B107" s="18"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="16"/>
       <c r="B108" s="18"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="16"/>
       <c r="B109" s="18"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="16"/>
       <c r="B110" s="18"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="16"/>
       <c r="B111" s="18"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="16"/>
       <c r="B112" s="18"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="16"/>
       <c r="B113" s="18"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="16"/>
       <c r="B114" s="18"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="16"/>
       <c r="B115" s="18"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="16"/>
       <c r="B116" s="18"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="16"/>
       <c r="B117" s="18"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="16"/>
       <c r="B118" s="18"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="16"/>
       <c r="B119" s="18"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="16"/>
       <c r="B120" s="18"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="16"/>
       <c r="B121" s="18"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="16"/>
       <c r="B122" s="18"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="16"/>
       <c r="B123" s="18"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="16"/>
       <c r="B124" s="18"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="16"/>
       <c r="B125" s="18"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="16"/>
       <c r="B126" s="18"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="16"/>
       <c r="B127" s="18"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="16"/>
       <c r="B128" s="18"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="16"/>
       <c r="B129" s="18"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="16"/>
       <c r="B130" s="18"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="16"/>
       <c r="B131" s="18"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="16"/>
       <c r="B132" s="18"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="16"/>
       <c r="B133" s="18"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="16"/>
       <c r="B134" s="18"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="16"/>
       <c r="B135" s="18"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="16"/>
       <c r="B136" s="18"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="16"/>
       <c r="B137" s="18"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="16"/>
       <c r="B138" s="18"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="16"/>
       <c r="B139" s="18"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="16"/>
       <c r="B140" s="18"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="16"/>
       <c r="B141" s="18"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="16"/>
       <c r="B142" s="18"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="16"/>
       <c r="B143" s="18"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="16"/>
       <c r="B144" s="18"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="16"/>
       <c r="B145" s="18"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="16"/>
       <c r="B146" s="18"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="16"/>
       <c r="B147" s="18"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="16"/>
       <c r="B148" s="18"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="16"/>
       <c r="B149" s="18"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="16"/>
       <c r="B150" s="18"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="16"/>
       <c r="B151" s="18"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="16"/>
       <c r="B152" s="18"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="16"/>
       <c r="B153" s="18"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="16"/>
       <c r="B154" s="18"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="16"/>
       <c r="B155" s="18"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="16"/>
       <c r="B156" s="18"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="16"/>
       <c r="B157" s="18"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="16"/>
       <c r="B158" s="18"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="16"/>
       <c r="B159" s="18"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="16"/>
       <c r="B160" s="18"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="16"/>
       <c r="B161" s="18"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="16"/>
       <c r="B162" s="18"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="16"/>
       <c r="B163" s="18"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="16"/>
       <c r="B164" s="18"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="16"/>
       <c r="B165" s="18"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="16"/>
       <c r="B166" s="18"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="16"/>
       <c r="B167" s="18"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="16"/>
       <c r="B168" s="18"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="16"/>
       <c r="B169" s="18"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="16"/>
       <c r="B170" s="18"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="16"/>
       <c r="B171" s="18"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="16"/>
       <c r="B172" s="18"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="16"/>
       <c r="B173" s="18"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="16"/>
       <c r="B174" s="18"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="16"/>
       <c r="B175" s="18"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="16"/>
       <c r="B176" s="18"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="16"/>
       <c r="B177" s="18"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="16"/>
       <c r="B178" s="18"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="16"/>
       <c r="B179" s="18"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="16"/>
       <c r="B180" s="18"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="16"/>
       <c r="B181" s="18"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="16"/>
       <c r="B182" s="18"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="16"/>
       <c r="B183" s="18"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="16"/>
       <c r="B184" s="18"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="16"/>
       <c r="B185" s="18"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="16"/>
       <c r="B186" s="18"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="16"/>
       <c r="B187" s="18"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="16"/>
       <c r="B188" s="18"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="16"/>
       <c r="B189" s="18"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="16"/>
       <c r="B190" s="18"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="16"/>
       <c r="B191" s="18"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="16"/>
       <c r="B192" s="18"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="16"/>
       <c r="B193" s="18"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="16"/>
       <c r="B194" s="18"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="16"/>
       <c r="B195" s="18"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="16"/>
       <c r="B196" s="18"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="16"/>
       <c r="B197" s="18"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="16"/>
       <c r="B198" s="18"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="16"/>
       <c r="B199" s="18"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="16"/>
       <c r="B200" s="18"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="16"/>
       <c r="B201" s="18"/>
       <c r="C201" s="6"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707E027-DD64-4CC7-A466-3534DE00E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DAD84B-2822-4C95-ADB7-9D5A136140ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DAD84B-2822-4C95-ADB7-9D5A136140ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000D7E5-EEB5-415A-ACCB-744B9DD1CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000D7E5-EEB5-415A-ACCB-744B9DD1CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D434299-AD2A-4E38-BD33-0149673A595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D434299-AD2A-4E38-BD33-0149673A595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA36FFB-6AA3-4C86-B508-B00C211FCA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA36FFB-6AA3-4C86-B508-B00C211FCA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4812747-004E-4522-B47E-F145C57DCEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
+    <sheet name="インストールされているロボットの取得" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,6 +110,34 @@
   </si>
   <si>
     <t>結果</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホスト名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マシンタイプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マシンID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マシン名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール済みのバージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直近のハートビート</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -345,7 +374,264 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFA6A6A6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA6A6A6"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FFA6A6A6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFA6A6A6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFA6A6A6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA6A6A6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -892,17 +1178,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F904262A-6CA0-4711-BC84-FFA4BDAAFDBC}" name="説明" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{29CDBC9F-7802-4F9A-B14D-B1FCB565F43F}" name="ライセンス - Unattended ランタイム" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{A22596C9-48F0-4242-86F7-2AA0AF649AAB}" name="ライセンス - NonProduction ランタイム" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{F8A1464B-64D6-49F2-A428-70FBC7C832E3}" name="ライセンス - Testing ランタイム" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F904262A-6CA0-4711-BC84-FFA4BDAAFDBC}" name="説明" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{29CDBC9F-7802-4F9A-B14D-B1FCB565F43F}" name="ライセンス - Unattended ランタイム" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{A22596C9-48F0-4242-86F7-2AA0AF649AAB}" name="ライセンス - NonProduction ランタイム" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F8A1464B-64D6-49F2-A428-70FBC7C832E3}" name="ライセンス - Testing ランタイム" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -912,15 +1198,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{4045AA2E-C8FB-4B94-AE28-4AD67667FBC9}" name="説明" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{93F9A37A-76A0-4773-B977-E8046BE298D0}" name="ライセンス - Unattended ランタイム" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{99A48AC2-2597-4336-8A74-C65178D77EA5}" name="ライセンス - NonProduction ランタイム" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2293D387-0C29-4EC9-A0D4-7B354A04A290}" name="ライセンス - Testing ランタイム" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{4045AA2E-C8FB-4B94-AE28-4AD67667FBC9}" name="説明" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{93F9A37A-76A0-4773-B977-E8046BE298D0}" name="ライセンス - Unattended ランタイム" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{99A48AC2-2597-4336-8A74-C65178D77EA5}" name="ライセンス - NonProduction ランタイム" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{2293D387-0C29-4EC9-A0D4-7B354A04A290}" name="ライセンス - Testing ランタイム" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -930,9 +1216,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA94EC26-F9D9-4807-814D-27D3DB40128E}" name="Table145" displayName="Table145" ref="A1:G201" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="7" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="9" xr3:uid="{9C9741A7-DCE2-4748-8A7A-DB4AEE96059B}" name="ホスト名" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{328E03BB-649D-479B-91B9-B5EC1E651C21}" name="マシンタイプ" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{350B2C56-EF23-40EF-89E2-35E00D49921A}" name="マシンID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B53A96F4-631A-420D-9C7D-A8BF24C51E55}" name="マシン名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4BF1B382-C959-42B5-B9AD-8502BE3382BE}" name="インストール済みのバージョン" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DB03A047-79CD-4377-9E36-CA37095652C8}" name="ステータス" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{030489A6-83E6-4839-A3A2-2DD92BE9868E}" name="直近のハートビート" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5542,7 +5844,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6577,4 +6879,2066 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC156BEF-4300-4277-A021-33D38A949AA2}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="C202:C1048576 C2:C201" xr:uid="{E324507E-ECFC-41FF-8AC3-3785C590CFF7}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A202:B1048576 A2:B201" xr:uid="{DC6F2837-CE4E-4A9A-9DBB-727F6640F9EB}">
+      <formula1>"Standard,Template"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4812747-004E-4522-B47E-F145C57DCEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E669A5C-5E93-49D9-8B28-1C03054EDA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
     <sheet name="インストールされているロボットの取得" sheetId="6" r:id="rId4"/>
+    <sheet name="ユーザーマッピングを編集" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -138,6 +139,14 @@
   </si>
   <si>
     <t>直近のハートビート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割り当てするユーザー名のリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割り当てを解除するユーザー名のリスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -374,7 +383,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1178,17 +1250,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F904262A-6CA0-4711-BC84-FFA4BDAAFDBC}" name="説明" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{29CDBC9F-7802-4F9A-B14D-B1FCB565F43F}" name="ライセンス - Unattended ランタイム" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{A22596C9-48F0-4242-86F7-2AA0AF649AAB}" name="ライセンス - NonProduction ランタイム" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{F8A1464B-64D6-49F2-A428-70FBC7C832E3}" name="ライセンス - Testing ランタイム" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{F904262A-6CA0-4711-BC84-FFA4BDAAFDBC}" name="説明" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{29CDBC9F-7802-4F9A-B14D-B1FCB565F43F}" name="ライセンス - Unattended ランタイム" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{A22596C9-48F0-4242-86F7-2AA0AF649AAB}" name="ライセンス - NonProduction ランタイム" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{F8A1464B-64D6-49F2-A428-70FBC7C832E3}" name="ライセンス - Testing ランタイム" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1198,15 +1270,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{4045AA2E-C8FB-4B94-AE28-4AD67667FBC9}" name="説明" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{93F9A37A-76A0-4773-B977-E8046BE298D0}" name="ライセンス - Unattended ランタイム" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{99A48AC2-2597-4336-8A74-C65178D77EA5}" name="ライセンス - NonProduction ランタイム" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{2293D387-0C29-4EC9-A0D4-7B354A04A290}" name="ライセンス - Testing ランタイム" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{4045AA2E-C8FB-4B94-AE28-4AD67667FBC9}" name="説明" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{93F9A37A-76A0-4773-B977-E8046BE298D0}" name="ライセンス - Unattended ランタイム" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{99A48AC2-2597-4336-8A74-C65178D77EA5}" name="ライセンス - NonProduction ランタイム" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{2293D387-0C29-4EC9-A0D4-7B354A04A290}" name="ライセンス - Testing ランタイム" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,25 +1288,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA94EC26-F9D9-4807-814D-27D3DB40128E}" name="Table145" displayName="Table145" ref="A1:G201" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="7" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA94EC26-F9D9-4807-814D-27D3DB40128E}" name="Table145" displayName="Table145" ref="A1:G201" headerRowDxfId="15" dataDxfId="13" totalsRowDxfId="11" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="9" xr3:uid="{9C9741A7-DCE2-4748-8A7A-DB4AEE96059B}" name="ホスト名" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{328E03BB-649D-479B-91B9-B5EC1E651C21}" name="マシンタイプ" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{350B2C56-EF23-40EF-89E2-35E00D49921A}" name="マシンID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B53A96F4-631A-420D-9C7D-A8BF24C51E55}" name="マシン名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4BF1B382-C959-42B5-B9AD-8502BE3382BE}" name="インストール済みのバージョン" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{DB03A047-79CD-4377-9E36-CA37095652C8}" name="ステータス" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{030489A6-83E6-4839-A3A2-2DD92BE9868E}" name="直近のハートビート" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{9C9741A7-DCE2-4748-8A7A-DB4AEE96059B}" name="ホスト名" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{328E03BB-649D-479B-91B9-B5EC1E651C21}" name="マシンタイプ" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{350B2C56-EF23-40EF-89E2-35E00D49921A}" name="マシンID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B53A96F4-631A-420D-9C7D-A8BF24C51E55}" name="マシン名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4BF1B382-C959-42B5-B9AD-8502BE3382BE}" name="インストール済みのバージョン" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DB03A047-79CD-4377-9E36-CA37095652C8}" name="ステータス" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{030489A6-83E6-4839-A3A2-2DD92BE9868E}" name="直近のハートビート" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{82A7F866-A62C-4DB2-BB60-4775BB29BD24}" name="Table16" displayName="Table16" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{B5A9A6A2-65E1-4D03-8251-C48A951128E8}" name="マシンID" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{48B7BA92-3352-4314-B710-F3C1D3E74128}" name="割り当てするユーザー名のリスト" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{93C185DE-8EA4-4C90-A65D-6ED22B91EEE6}" name="割り当てを解除するユーザー名のリスト" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6459963C-C69B-4670-8A11-975A7D8448B9}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6886,7 +6971,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8941,4 +9026,1456 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB5A082-F0E3-400D-911F-C380794D2347}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="6"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="6"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="6"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="6"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="6"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="6"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="6"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="6"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="6"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="6"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="6"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="6"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="6"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="6"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="6"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="6"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="6"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="6"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="6"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="6"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="6"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="6"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="6"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="6"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="6"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="6"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="6"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="6"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="6"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="6"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="6"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="6"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="6"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="6"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="6"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="6"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="6"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="6"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="6"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="6"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="6"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="6"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="6"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="6"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="6"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="18"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="6"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="6"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="6"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="6"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="6"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="18"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="6"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="6"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="6"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="6"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="6"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="6"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="6"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="18"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="6"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="6"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="18"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="6"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="6"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="6"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="6"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="6"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="6"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="18"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="6"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="18"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="6"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="6"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="6"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="6"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="6"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="18"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="6"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="6"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="6"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="6"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="6"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="6"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="6"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="18"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="6"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="18"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="6"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="18"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="6"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="18"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="6"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="18"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="6"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="18"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="6"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="18"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="6"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="18"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="6"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="18"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="6"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="18"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="6"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="18"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="6"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="18"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="6"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="18"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="6"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="18"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="6"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="18"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="6"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="18"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="6"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="18"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="6"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="18"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="6"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="18"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="6"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="18"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="6"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" s="18"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="6"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" s="18"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="6"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" s="18"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="6"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="18"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="6"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" s="18"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="6"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" s="18"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="6"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" s="18"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="6"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108" s="18"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="6"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109" s="18"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="6"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110" s="18"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="6"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" s="18"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="6"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" s="18"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="6"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113" s="18"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="6"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114" s="18"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="6"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115" s="18"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="6"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" s="18"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="6"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" s="18"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="6"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" s="18"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="6"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" s="18"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="6"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" s="18"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="6"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121" s="18"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="6"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122" s="18"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="6"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" s="18"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="6"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124" s="18"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="6"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125" s="18"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="6"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" s="18"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="6"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" s="18"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="6"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" s="18"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="6"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" s="18"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="6"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" s="18"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="6"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" s="18"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="6"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" s="18"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="6"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" s="18"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="6"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" s="18"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="6"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135" s="18"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="6"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" s="18"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="6"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" s="18"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="6"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138" s="18"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="6"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" s="18"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="6"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" s="18"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="6"/>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="18"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="6"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="18"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="6"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" s="18"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="6"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144" s="18"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="6"/>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="18"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="6"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="18"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="6"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="18"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="6"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="18"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="6"/>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="18"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="6"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="18"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="6"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="18"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="6"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="18"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="6"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="18"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="6"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="18"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="6"/>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155" s="18"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="6"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="18"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="6"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="18"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="6"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="18"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="6"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="18"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="6"/>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160" s="18"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="6"/>
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161" s="18"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="6"/>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A162" s="18"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="6"/>
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A163" s="18"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="6"/>
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A164" s="18"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="6"/>
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A165" s="18"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="6"/>
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A166" s="18"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="6"/>
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A167" s="18"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="6"/>
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A168" s="18"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="6"/>
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A169" s="18"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="6"/>
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A170" s="18"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="6"/>
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A171" s="18"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="6"/>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A172" s="18"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="6"/>
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A173" s="18"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="6"/>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A174" s="18"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="6"/>
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A175" s="18"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="6"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A176" s="18"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="6"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A177" s="18"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="6"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178" s="18"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="6"/>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A179" s="18"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="6"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A180" s="18"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="6"/>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A181" s="18"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="6"/>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A182" s="18"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="6"/>
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A183" s="18"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="6"/>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A184" s="18"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="6"/>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A185" s="18"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="6"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A186" s="18"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="6"/>
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A187" s="18"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="6"/>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A188" s="18"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="6"/>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A189" s="18"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="6"/>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A190" s="18"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="6"/>
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A191" s="18"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="6"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A192" s="18"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="6"/>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A193" s="18"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="6"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A194" s="18"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="6"/>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A195" s="18"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="6"/>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A196" s="18"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="6"/>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A197" s="18"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="6"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A198" s="18"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="6"/>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A199" s="18"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="6"/>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A200" s="18"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="6"/>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A201" s="18"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="6"/>
+      <c r="E201"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A202:A1048576" xr:uid="{C86D4DAD-9CDE-4DA9-82EE-3BAA7751C70A}">
+      <formula1>"Standard,Template"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="D202:D1048576" xr:uid="{27403450-D113-4F97-8437-239955512184}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 B2:B1048576" xr:uid="{992ADF14-BF8E-4826-B8AA-2F25D5AEA4AB}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/マシン.xlsx
+++ b/Workbooks/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E669A5C-5E93-49D9-8B28-1C03054EDA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A217CCA-0817-4756-9E20-E7AF28480837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
